--- a/inputs/dataset_ordens.xlsx
+++ b/inputs/dataset_ordens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Production_Scheduling_RL\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768A70A-1AB9-4D13-A65D-FC87C8BAB39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1A620-9A0C-4774-A284-6A918C98068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{57B4C93A-9DC9-4A2F-A52B-119F57F6144C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="319">
   <si>
     <t>id_material</t>
   </si>
@@ -132,13 +132,874 @@
   </si>
   <si>
     <t>mat025</t>
+  </si>
+  <si>
+    <t>mat026</t>
+  </si>
+  <si>
+    <t>mat027</t>
+  </si>
+  <si>
+    <t>mat028</t>
+  </si>
+  <si>
+    <t>mat029</t>
+  </si>
+  <si>
+    <t>mat030</t>
+  </si>
+  <si>
+    <t>mat031</t>
+  </si>
+  <si>
+    <t>mat032</t>
+  </si>
+  <si>
+    <t>mat033</t>
+  </si>
+  <si>
+    <t>mat034</t>
+  </si>
+  <si>
+    <t>mat035</t>
+  </si>
+  <si>
+    <t>mat036</t>
+  </si>
+  <si>
+    <t>mat037</t>
+  </si>
+  <si>
+    <t>mat038</t>
+  </si>
+  <si>
+    <t>mat039</t>
+  </si>
+  <si>
+    <t>mat040</t>
+  </si>
+  <si>
+    <t>mat041</t>
+  </si>
+  <si>
+    <t>mat042</t>
+  </si>
+  <si>
+    <t>mat043</t>
+  </si>
+  <si>
+    <t>mat044</t>
+  </si>
+  <si>
+    <t>mat045</t>
+  </si>
+  <si>
+    <t>mat046</t>
+  </si>
+  <si>
+    <t>mat047</t>
+  </si>
+  <si>
+    <t>mat048</t>
+  </si>
+  <si>
+    <t>mat049</t>
+  </si>
+  <si>
+    <t>mat050</t>
+  </si>
+  <si>
+    <t>mat051</t>
+  </si>
+  <si>
+    <t>mat052</t>
+  </si>
+  <si>
+    <t>mat053</t>
+  </si>
+  <si>
+    <t>mat054</t>
+  </si>
+  <si>
+    <t>mat055</t>
+  </si>
+  <si>
+    <t>mat056</t>
+  </si>
+  <si>
+    <t>mat057</t>
+  </si>
+  <si>
+    <t>mat058</t>
+  </si>
+  <si>
+    <t>mat059</t>
+  </si>
+  <si>
+    <t>mat060</t>
+  </si>
+  <si>
+    <t>mat061</t>
+  </si>
+  <si>
+    <t>mat062</t>
+  </si>
+  <si>
+    <t>mat063</t>
+  </si>
+  <si>
+    <t>mat064</t>
+  </si>
+  <si>
+    <t>mat065</t>
+  </si>
+  <si>
+    <t>mat066</t>
+  </si>
+  <si>
+    <t>mat067</t>
+  </si>
+  <si>
+    <t>mat068</t>
+  </si>
+  <si>
+    <t>mat069</t>
+  </si>
+  <si>
+    <t>mat070</t>
+  </si>
+  <si>
+    <t>mat071</t>
+  </si>
+  <si>
+    <t>mat072</t>
+  </si>
+  <si>
+    <t>mat073</t>
+  </si>
+  <si>
+    <t>mat074</t>
+  </si>
+  <si>
+    <t>mat075</t>
+  </si>
+  <si>
+    <t>mat076</t>
+  </si>
+  <si>
+    <t>mat077</t>
+  </si>
+  <si>
+    <t>mat078</t>
+  </si>
+  <si>
+    <t>mat079</t>
+  </si>
+  <si>
+    <t>mat080</t>
+  </si>
+  <si>
+    <t>mat081</t>
+  </si>
+  <si>
+    <t>mat082</t>
+  </si>
+  <si>
+    <t>mat083</t>
+  </si>
+  <si>
+    <t>mat084</t>
+  </si>
+  <si>
+    <t>mat085</t>
+  </si>
+  <si>
+    <t>mat086</t>
+  </si>
+  <si>
+    <t>mat087</t>
+  </si>
+  <si>
+    <t>mat088</t>
+  </si>
+  <si>
+    <t>mat089</t>
+  </si>
+  <si>
+    <t>mat090</t>
+  </si>
+  <si>
+    <t>mat091</t>
+  </si>
+  <si>
+    <t>mat092</t>
+  </si>
+  <si>
+    <t>mat093</t>
+  </si>
+  <si>
+    <t>mat094</t>
+  </si>
+  <si>
+    <t>mat095</t>
+  </si>
+  <si>
+    <t>mat096</t>
+  </si>
+  <si>
+    <t>mat097</t>
+  </si>
+  <si>
+    <t>mat098</t>
+  </si>
+  <si>
+    <t>mat099</t>
+  </si>
+  <si>
+    <t>mat100</t>
+  </si>
+  <si>
+    <t>mat101</t>
+  </si>
+  <si>
+    <t>mat102</t>
+  </si>
+  <si>
+    <t>mat103</t>
+  </si>
+  <si>
+    <t>mat104</t>
+  </si>
+  <si>
+    <t>mat105</t>
+  </si>
+  <si>
+    <t>mat106</t>
+  </si>
+  <si>
+    <t>mat107</t>
+  </si>
+  <si>
+    <t>mat108</t>
+  </si>
+  <si>
+    <t>mat109</t>
+  </si>
+  <si>
+    <t>mat110</t>
+  </si>
+  <si>
+    <t>mat111</t>
+  </si>
+  <si>
+    <t>mat112</t>
+  </si>
+  <si>
+    <t>mat113</t>
+  </si>
+  <si>
+    <t>mat114</t>
+  </si>
+  <si>
+    <t>mat115</t>
+  </si>
+  <si>
+    <t>mat116</t>
+  </si>
+  <si>
+    <t>mat117</t>
+  </si>
+  <si>
+    <t>mat118</t>
+  </si>
+  <si>
+    <t>mat119</t>
+  </si>
+  <si>
+    <t>mat120</t>
+  </si>
+  <si>
+    <t>mat121</t>
+  </si>
+  <si>
+    <t>mat122</t>
+  </si>
+  <si>
+    <t>mat123</t>
+  </si>
+  <si>
+    <t>mat124</t>
+  </si>
+  <si>
+    <t>mat125</t>
+  </si>
+  <si>
+    <t>mat126</t>
+  </si>
+  <si>
+    <t>mat127</t>
+  </si>
+  <si>
+    <t>mat128</t>
+  </si>
+  <si>
+    <t>mat129</t>
+  </si>
+  <si>
+    <t>mat130</t>
+  </si>
+  <si>
+    <t>mat131</t>
+  </si>
+  <si>
+    <t>mat132</t>
+  </si>
+  <si>
+    <t>mat133</t>
+  </si>
+  <si>
+    <t>mat134</t>
+  </si>
+  <si>
+    <t>mat135</t>
+  </si>
+  <si>
+    <t>mat136</t>
+  </si>
+  <si>
+    <t>mat137</t>
+  </si>
+  <si>
+    <t>mat138</t>
+  </si>
+  <si>
+    <t>mat139</t>
+  </si>
+  <si>
+    <t>mat140</t>
+  </si>
+  <si>
+    <t>mat141</t>
+  </si>
+  <si>
+    <t>mat142</t>
+  </si>
+  <si>
+    <t>mat143</t>
+  </si>
+  <si>
+    <t>mat144</t>
+  </si>
+  <si>
+    <t>mat145</t>
+  </si>
+  <si>
+    <t>mat146</t>
+  </si>
+  <si>
+    <t>mat147</t>
+  </si>
+  <si>
+    <t>mat148</t>
+  </si>
+  <si>
+    <t>mat149</t>
+  </si>
+  <si>
+    <t>mat150</t>
+  </si>
+  <si>
+    <t>mat151</t>
+  </si>
+  <si>
+    <t>mat152</t>
+  </si>
+  <si>
+    <t>mat153</t>
+  </si>
+  <si>
+    <t>mat154</t>
+  </si>
+  <si>
+    <t>mat155</t>
+  </si>
+  <si>
+    <t>mat156</t>
+  </si>
+  <si>
+    <t>mat157</t>
+  </si>
+  <si>
+    <t>mat158</t>
+  </si>
+  <si>
+    <t>mat159</t>
+  </si>
+  <si>
+    <t>mat160</t>
+  </si>
+  <si>
+    <t>mat161</t>
+  </si>
+  <si>
+    <t>mat162</t>
+  </si>
+  <si>
+    <t>mat163</t>
+  </si>
+  <si>
+    <t>mat164</t>
+  </si>
+  <si>
+    <t>mat165</t>
+  </si>
+  <si>
+    <t>mat166</t>
+  </si>
+  <si>
+    <t>mat167</t>
+  </si>
+  <si>
+    <t>mat168</t>
+  </si>
+  <si>
+    <t>mat169</t>
+  </si>
+  <si>
+    <t>mat170</t>
+  </si>
+  <si>
+    <t>mat171</t>
+  </si>
+  <si>
+    <t>mat172</t>
+  </si>
+  <si>
+    <t>mat173</t>
+  </si>
+  <si>
+    <t>mat174</t>
+  </si>
+  <si>
+    <t>mat175</t>
+  </si>
+  <si>
+    <t>mat176</t>
+  </si>
+  <si>
+    <t>mat177</t>
+  </si>
+  <si>
+    <t>mat178</t>
+  </si>
+  <si>
+    <t>mat179</t>
+  </si>
+  <si>
+    <t>mat180</t>
+  </si>
+  <si>
+    <t>mat181</t>
+  </si>
+  <si>
+    <t>mat182</t>
+  </si>
+  <si>
+    <t>mat183</t>
+  </si>
+  <si>
+    <t>mat184</t>
+  </si>
+  <si>
+    <t>mat185</t>
+  </si>
+  <si>
+    <t>mat186</t>
+  </si>
+  <si>
+    <t>mat187</t>
+  </si>
+  <si>
+    <t>mat188</t>
+  </si>
+  <si>
+    <t>mat189</t>
+  </si>
+  <si>
+    <t>mat190</t>
+  </si>
+  <si>
+    <t>mat191</t>
+  </si>
+  <si>
+    <t>mat192</t>
+  </si>
+  <si>
+    <t>mat193</t>
+  </si>
+  <si>
+    <t>mat194</t>
+  </si>
+  <si>
+    <t>mat195</t>
+  </si>
+  <si>
+    <t>mat196</t>
+  </si>
+  <si>
+    <t>mat197</t>
+  </si>
+  <si>
+    <t>mat198</t>
+  </si>
+  <si>
+    <t>mat199</t>
+  </si>
+  <si>
+    <t>mat200</t>
+  </si>
+  <si>
+    <t>mat201</t>
+  </si>
+  <si>
+    <t>mat202</t>
+  </si>
+  <si>
+    <t>mat203</t>
+  </si>
+  <si>
+    <t>mat204</t>
+  </si>
+  <si>
+    <t>mat205</t>
+  </si>
+  <si>
+    <t>mat206</t>
+  </si>
+  <si>
+    <t>mat207</t>
+  </si>
+  <si>
+    <t>mat208</t>
+  </si>
+  <si>
+    <t>mat209</t>
+  </si>
+  <si>
+    <t>mat210</t>
+  </si>
+  <si>
+    <t>mat211</t>
+  </si>
+  <si>
+    <t>mat212</t>
+  </si>
+  <si>
+    <t>mat213</t>
+  </si>
+  <si>
+    <t>mat214</t>
+  </si>
+  <si>
+    <t>mat215</t>
+  </si>
+  <si>
+    <t>mat216</t>
+  </si>
+  <si>
+    <t>mat217</t>
+  </si>
+  <si>
+    <t>mat218</t>
+  </si>
+  <si>
+    <t>mat219</t>
+  </si>
+  <si>
+    <t>mat220</t>
+  </si>
+  <si>
+    <t>mat221</t>
+  </si>
+  <si>
+    <t>mat222</t>
+  </si>
+  <si>
+    <t>mat223</t>
+  </si>
+  <si>
+    <t>mat224</t>
+  </si>
+  <si>
+    <t>mat225</t>
+  </si>
+  <si>
+    <t>mat226</t>
+  </si>
+  <si>
+    <t>mat227</t>
+  </si>
+  <si>
+    <t>mat228</t>
+  </si>
+  <si>
+    <t>mat229</t>
+  </si>
+  <si>
+    <t>mat230</t>
+  </si>
+  <si>
+    <t>mat231</t>
+  </si>
+  <si>
+    <t>mat232</t>
+  </si>
+  <si>
+    <t>mat233</t>
+  </si>
+  <si>
+    <t>mat234</t>
+  </si>
+  <si>
+    <t>mat235</t>
+  </si>
+  <si>
+    <t>mat236</t>
+  </si>
+  <si>
+    <t>mat237</t>
+  </si>
+  <si>
+    <t>mat238</t>
+  </si>
+  <si>
+    <t>mat239</t>
+  </si>
+  <si>
+    <t>mat240</t>
+  </si>
+  <si>
+    <t>mat241</t>
+  </si>
+  <si>
+    <t>mat242</t>
+  </si>
+  <si>
+    <t>mat243</t>
+  </si>
+  <si>
+    <t>mat244</t>
+  </si>
+  <si>
+    <t>mat245</t>
+  </si>
+  <si>
+    <t>mat246</t>
+  </si>
+  <si>
+    <t>mat247</t>
+  </si>
+  <si>
+    <t>mat248</t>
+  </si>
+  <si>
+    <t>mat249</t>
+  </si>
+  <si>
+    <t>mat250</t>
+  </si>
+  <si>
+    <t>mat251</t>
+  </si>
+  <si>
+    <t>mat252</t>
+  </si>
+  <si>
+    <t>mat253</t>
+  </si>
+  <si>
+    <t>mat254</t>
+  </si>
+  <si>
+    <t>mat255</t>
+  </si>
+  <si>
+    <t>mat256</t>
+  </si>
+  <si>
+    <t>mat257</t>
+  </si>
+  <si>
+    <t>mat258</t>
+  </si>
+  <si>
+    <t>mat259</t>
+  </si>
+  <si>
+    <t>mat260</t>
+  </si>
+  <si>
+    <t>mat261</t>
+  </si>
+  <si>
+    <t>mat262</t>
+  </si>
+  <si>
+    <t>mat263</t>
+  </si>
+  <si>
+    <t>mat264</t>
+  </si>
+  <si>
+    <t>mat265</t>
+  </si>
+  <si>
+    <t>mat266</t>
+  </si>
+  <si>
+    <t>mat267</t>
+  </si>
+  <si>
+    <t>mat268</t>
+  </si>
+  <si>
+    <t>mat269</t>
+  </si>
+  <si>
+    <t>mat270</t>
+  </si>
+  <si>
+    <t>mat271</t>
+  </si>
+  <si>
+    <t>mat272</t>
+  </si>
+  <si>
+    <t>mat273</t>
+  </si>
+  <si>
+    <t>mat274</t>
+  </si>
+  <si>
+    <t>mat275</t>
+  </si>
+  <si>
+    <t>mat276</t>
+  </si>
+  <si>
+    <t>mat277</t>
+  </si>
+  <si>
+    <t>mat278</t>
+  </si>
+  <si>
+    <t>mat279</t>
+  </si>
+  <si>
+    <t>mat280</t>
+  </si>
+  <si>
+    <t>mat281</t>
+  </si>
+  <si>
+    <t>mat282</t>
+  </si>
+  <si>
+    <t>mat283</t>
+  </si>
+  <si>
+    <t>mat284</t>
+  </si>
+  <si>
+    <t>mat285</t>
+  </si>
+  <si>
+    <t>mat286</t>
+  </si>
+  <si>
+    <t>mat287</t>
+  </si>
+  <si>
+    <t>mat288</t>
+  </si>
+  <si>
+    <t>mat289</t>
+  </si>
+  <si>
+    <t>mat290</t>
+  </si>
+  <si>
+    <t>mat291</t>
+  </si>
+  <si>
+    <t>mat292</t>
+  </si>
+  <si>
+    <t>mat293</t>
+  </si>
+  <si>
+    <t>mat294</t>
+  </si>
+  <si>
+    <t>mat295</t>
+  </si>
+  <si>
+    <t>mat296</t>
+  </si>
+  <si>
+    <t>mat297</t>
+  </si>
+  <si>
+    <t>mat298</t>
+  </si>
+  <si>
+    <t>mat299</t>
+  </si>
+  <si>
+    <t>mat300</t>
+  </si>
+  <si>
+    <t>mat301</t>
+  </si>
+  <si>
+    <t>mat302</t>
+  </si>
+  <si>
+    <t>mat303</t>
+  </si>
+  <si>
+    <t>mat304</t>
+  </si>
+  <si>
+    <t>mat305</t>
+  </si>
+  <si>
+    <t>mat306</t>
+  </si>
+  <si>
+    <t>mat307</t>
+  </si>
+  <si>
+    <t>mat308</t>
+  </si>
+  <si>
+    <t>mat309</t>
+  </si>
+  <si>
+    <t>mat310</t>
+  </si>
+  <si>
+    <t>mat311</t>
+  </si>
+  <si>
+    <t>due_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +1010,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,20 +1358,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A723ED9-43A4-418C-B8E7-8AD415412240}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3:C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="4" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,16 +1380,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,16 +1400,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="E2" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="F2" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,16 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D3" s="1">
-        <v>61</v>
+        <v>371</v>
       </c>
       <c r="E3" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+      <c r="F3" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -563,16 +1440,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1">
-        <v>64</v>
+        <v>485</v>
       </c>
       <c r="E4" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+      <c r="F4" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,16 +1460,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>105</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="F5" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -597,16 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1">
-        <v>132</v>
+        <v>430</v>
       </c>
       <c r="E6" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+      <c r="F6" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -614,16 +1500,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="D7" s="1">
-        <v>143</v>
+        <v>541</v>
       </c>
       <c r="E7" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="F7" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -631,16 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="E8" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="F8" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -648,16 +1540,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="E9" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+      <c r="F9" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -665,16 +1560,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1">
-        <v>104</v>
+        <v>444</v>
       </c>
       <c r="E10" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+      <c r="F10" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,16 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="E11" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="F11" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -699,16 +1600,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="D12" s="1">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="E12" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="F12" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -716,16 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D13" s="1">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="E13" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+      <c r="F13" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -733,16 +1640,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1">
-        <v>83</v>
+        <v>548</v>
       </c>
       <c r="E14" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="F14" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -750,16 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D15" s="1">
-        <v>123</v>
+        <v>576</v>
       </c>
       <c r="E15" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+      <c r="F15" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -767,16 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="D16" s="1">
-        <v>126</v>
+        <v>517</v>
       </c>
       <c r="E16" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="F16" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -784,16 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="D17" s="1">
-        <v>42</v>
+        <v>448</v>
       </c>
       <c r="E17" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+      <c r="F17" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -801,16 +1720,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="D18" s="1">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="E18" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+      <c r="F18" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -818,16 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="D19" s="1">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="E19" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="F19" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -835,16 +1760,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="D20" s="1">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="E20" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="F20" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -852,16 +1780,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="1">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1">
-        <v>95</v>
+        <v>488</v>
       </c>
       <c r="E21" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="F21" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -869,16 +1800,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="D22" s="1">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="E22" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="F22" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -886,16 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D23" s="1">
-        <v>69</v>
+        <v>582</v>
       </c>
       <c r="E23" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="F23" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -903,16 +1840,19 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="D24" s="1">
-        <v>149</v>
+        <v>519</v>
       </c>
       <c r="E24" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="F24" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -920,16 +1860,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="D25" s="1">
-        <v>146</v>
+        <v>468</v>
       </c>
       <c r="E25" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="F25" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -937,16 +1880,5741 @@
         <v>6</v>
       </c>
       <c r="C26" s="1">
+        <v>300</v>
+      </c>
+      <c r="D26" s="1">
+        <v>492</v>
+      </c>
+      <c r="E26" s="1">
+        <v>418</v>
+      </c>
+      <c r="F26" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>300</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27">
+        <v>178</v>
+      </c>
+      <c r="F27">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>300</v>
+      </c>
+      <c r="D28">
+        <v>230</v>
+      </c>
+      <c r="E28">
+        <v>217</v>
+      </c>
+      <c r="F28">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>300</v>
+      </c>
+      <c r="D29">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>272</v>
+      </c>
+      <c r="F29">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>300</v>
+      </c>
+      <c r="D30">
+        <v>170</v>
+      </c>
+      <c r="E30">
+        <v>284</v>
+      </c>
+      <c r="F30">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>300</v>
+      </c>
+      <c r="D31">
+        <v>251</v>
+      </c>
+      <c r="E31">
+        <v>299</v>
+      </c>
+      <c r="F31">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32">
+        <v>266</v>
+      </c>
+      <c r="F32">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>296</v>
+      </c>
+      <c r="E33">
+        <v>271</v>
+      </c>
+      <c r="F33">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <v>268</v>
+      </c>
+      <c r="E34">
+        <v>179</v>
+      </c>
+      <c r="F34">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>300</v>
+      </c>
+      <c r="D35">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>235</v>
+      </c>
+      <c r="F35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>300</v>
+      </c>
+      <c r="D36">
+        <v>166</v>
+      </c>
+      <c r="E36">
+        <v>194</v>
+      </c>
+      <c r="F36">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>300</v>
+      </c>
+      <c r="D37">
+        <v>170</v>
+      </c>
+      <c r="E37">
+        <v>180</v>
+      </c>
+      <c r="F37">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>300</v>
+      </c>
+      <c r="D38">
+        <v>189</v>
+      </c>
+      <c r="E38">
+        <v>282</v>
+      </c>
+      <c r="F38">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>300</v>
+      </c>
+      <c r="D39">
+        <v>193</v>
+      </c>
+      <c r="E39">
+        <v>239</v>
+      </c>
+      <c r="F39">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>300</v>
+      </c>
+      <c r="D40">
+        <v>187</v>
+      </c>
+      <c r="E40">
+        <v>277</v>
+      </c>
+      <c r="F40">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>300</v>
+      </c>
+      <c r="D41">
+        <v>270</v>
+      </c>
+      <c r="E41">
+        <v>292</v>
+      </c>
+      <c r="F41">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>300</v>
+      </c>
+      <c r="D42">
+        <v>283</v>
+      </c>
+      <c r="E42">
+        <v>237</v>
+      </c>
+      <c r="F42">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <v>153</v>
+      </c>
+      <c r="E43">
+        <v>235</v>
+      </c>
+      <c r="F43">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>300</v>
+      </c>
+      <c r="D44">
+        <v>224</v>
+      </c>
+      <c r="E44">
+        <v>180</v>
+      </c>
+      <c r="F44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>300</v>
+      </c>
+      <c r="D45">
+        <v>292</v>
+      </c>
+      <c r="E45">
+        <v>219</v>
+      </c>
+      <c r="F45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>300</v>
+      </c>
+      <c r="D46">
+        <v>246</v>
+      </c>
+      <c r="E46">
+        <v>165</v>
+      </c>
+      <c r="F46">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>300</v>
+      </c>
+      <c r="D47">
+        <v>280</v>
+      </c>
+      <c r="E47">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>300</v>
+      </c>
+      <c r="D48">
+        <v>216</v>
+      </c>
+      <c r="E48">
+        <v>261</v>
+      </c>
+      <c r="F48">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>300</v>
+      </c>
+      <c r="D49">
+        <v>295</v>
+      </c>
+      <c r="E49">
+        <v>194</v>
+      </c>
+      <c r="F49">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>300</v>
+      </c>
+      <c r="D50">
+        <v>284</v>
+      </c>
+      <c r="E50">
+        <v>231</v>
+      </c>
+      <c r="F50">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>300</v>
+      </c>
+      <c r="D51">
+        <v>268</v>
+      </c>
+      <c r="E51">
+        <v>240</v>
+      </c>
+      <c r="F51">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>300</v>
+      </c>
+      <c r="D52">
+        <v>191</v>
+      </c>
+      <c r="E52">
+        <v>165</v>
+      </c>
+      <c r="F52">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>300</v>
+      </c>
+      <c r="D53">
+        <v>217</v>
+      </c>
+      <c r="E53">
+        <v>179</v>
+      </c>
+      <c r="F53">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>300</v>
+      </c>
+      <c r="D54">
+        <v>219</v>
+      </c>
+      <c r="E54">
+        <v>188</v>
+      </c>
+      <c r="F54">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1">
+        <v>300</v>
+      </c>
+      <c r="D55">
+        <v>297</v>
+      </c>
+      <c r="E55">
+        <v>213</v>
+      </c>
+      <c r="F55">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <v>300</v>
+      </c>
+      <c r="D56">
+        <v>235</v>
+      </c>
+      <c r="E56">
+        <v>237</v>
+      </c>
+      <c r="F56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>300</v>
+      </c>
+      <c r="D57">
+        <v>252</v>
+      </c>
+      <c r="E57">
+        <v>232</v>
+      </c>
+      <c r="F57">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>300</v>
+      </c>
+      <c r="D58">
+        <v>269</v>
+      </c>
+      <c r="E58">
+        <v>213</v>
+      </c>
+      <c r="F58">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>300</v>
+      </c>
+      <c r="D59">
+        <v>263</v>
+      </c>
+      <c r="E59">
+        <v>216</v>
+      </c>
+      <c r="F59">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>300</v>
+      </c>
+      <c r="D60">
+        <v>264</v>
+      </c>
+      <c r="E60">
+        <v>228</v>
+      </c>
+      <c r="F60">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>300</v>
+      </c>
+      <c r="D61">
+        <v>153</v>
+      </c>
+      <c r="E61">
+        <v>212</v>
+      </c>
+      <c r="F61">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>173</v>
+      </c>
+      <c r="E62">
+        <v>296</v>
+      </c>
+      <c r="F62">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>300</v>
+      </c>
+      <c r="D63">
+        <v>190</v>
+      </c>
+      <c r="E63">
+        <v>229</v>
+      </c>
+      <c r="F63">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>300</v>
+      </c>
+      <c r="D64">
+        <v>180</v>
+      </c>
+      <c r="E64">
+        <v>257</v>
+      </c>
+      <c r="F64">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>300</v>
+      </c>
+      <c r="D65">
+        <v>297</v>
+      </c>
+      <c r="E65">
+        <v>276</v>
+      </c>
+      <c r="F65">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>300</v>
+      </c>
+      <c r="D66">
+        <v>218</v>
+      </c>
+      <c r="E66">
+        <v>209</v>
+      </c>
+      <c r="F66">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>300</v>
+      </c>
+      <c r="D67">
+        <v>204</v>
+      </c>
+      <c r="E67">
+        <v>260</v>
+      </c>
+      <c r="F67">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>300</v>
+      </c>
+      <c r="D68">
+        <v>152</v>
+      </c>
+      <c r="E68">
+        <v>244</v>
+      </c>
+      <c r="F68">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>300</v>
+      </c>
+      <c r="D69">
+        <v>234</v>
+      </c>
+      <c r="E69">
+        <v>196</v>
+      </c>
+      <c r="F69">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>300</v>
+      </c>
+      <c r="D70">
+        <v>268</v>
+      </c>
+      <c r="E70">
+        <v>152</v>
+      </c>
+      <c r="F70">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>300</v>
+      </c>
+      <c r="D71">
+        <v>167</v>
+      </c>
+      <c r="E71">
+        <v>257</v>
+      </c>
+      <c r="F71">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>300</v>
+      </c>
+      <c r="D72">
+        <v>283</v>
+      </c>
+      <c r="E72">
+        <v>295</v>
+      </c>
+      <c r="F72">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>300</v>
+      </c>
+      <c r="D73">
+        <v>294</v>
+      </c>
+      <c r="E73">
+        <v>229</v>
+      </c>
+      <c r="F73">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>300</v>
+      </c>
+      <c r="D74">
+        <v>250</v>
+      </c>
+      <c r="E74">
+        <v>280</v>
+      </c>
+      <c r="F74">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>300</v>
+      </c>
+      <c r="D75">
+        <v>153</v>
+      </c>
+      <c r="E75">
+        <v>230</v>
+      </c>
+      <c r="F75">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>300</v>
+      </c>
+      <c r="D76">
+        <v>183</v>
+      </c>
+      <c r="E76">
+        <v>273</v>
+      </c>
+      <c r="F76">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>300</v>
+      </c>
+      <c r="D77">
+        <v>162</v>
+      </c>
+      <c r="E77">
+        <v>188</v>
+      </c>
+      <c r="F77">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>300</v>
+      </c>
+      <c r="D78">
+        <v>160</v>
+      </c>
+      <c r="E78">
+        <v>230</v>
+      </c>
+      <c r="F78">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>300</v>
+      </c>
+      <c r="D79">
+        <v>160</v>
+      </c>
+      <c r="E79">
+        <v>219</v>
+      </c>
+      <c r="F79">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>300</v>
+      </c>
+      <c r="D80">
+        <v>181</v>
+      </c>
+      <c r="E80">
+        <v>229</v>
+      </c>
+      <c r="F80">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>300</v>
+      </c>
+      <c r="D81">
+        <v>196</v>
+      </c>
+      <c r="E81">
+        <v>171</v>
+      </c>
+      <c r="F81">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1">
+        <v>300</v>
+      </c>
+      <c r="D82">
+        <v>163</v>
+      </c>
+      <c r="E82">
+        <v>297</v>
+      </c>
+      <c r="F82">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>300</v>
+      </c>
+      <c r="D83">
+        <v>224</v>
+      </c>
+      <c r="E83">
+        <v>235</v>
+      </c>
+      <c r="F83">
         <v>192</v>
       </c>
-      <c r="D26" s="1">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>300</v>
+      </c>
+      <c r="D84">
+        <v>219</v>
+      </c>
+      <c r="E84">
+        <v>278</v>
+      </c>
+      <c r="F84">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>300</v>
+      </c>
+      <c r="D85">
+        <v>232</v>
+      </c>
+      <c r="E85">
+        <v>236</v>
+      </c>
+      <c r="F85">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>300</v>
+      </c>
+      <c r="D86">
+        <v>195</v>
+      </c>
+      <c r="E86">
+        <v>182</v>
+      </c>
+      <c r="F86">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>300</v>
+      </c>
+      <c r="D87">
+        <v>235</v>
+      </c>
+      <c r="E87">
+        <v>184</v>
+      </c>
+      <c r="F87">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1">
+        <v>300</v>
+      </c>
+      <c r="D88">
+        <v>184</v>
+      </c>
+      <c r="E88">
+        <v>259</v>
+      </c>
+      <c r="F88">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1">
+        <v>300</v>
+      </c>
+      <c r="D89">
+        <v>171</v>
+      </c>
+      <c r="E89">
+        <v>170</v>
+      </c>
+      <c r="F89">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>300</v>
+      </c>
+      <c r="D90">
+        <v>288</v>
+      </c>
+      <c r="E90">
+        <v>191</v>
+      </c>
+      <c r="F90">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1">
+        <v>300</v>
+      </c>
+      <c r="D91">
+        <v>291</v>
+      </c>
+      <c r="E91">
+        <v>175</v>
+      </c>
+      <c r="F91">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>300</v>
+      </c>
+      <c r="D92">
+        <v>275</v>
+      </c>
+      <c r="E92">
+        <v>254</v>
+      </c>
+      <c r="F92">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1">
+        <v>300</v>
+      </c>
+      <c r="D93">
+        <v>232</v>
+      </c>
+      <c r="E93">
+        <v>297</v>
+      </c>
+      <c r="F93">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>300</v>
+      </c>
+      <c r="D94">
+        <v>253</v>
+      </c>
+      <c r="E94">
+        <v>199</v>
+      </c>
+      <c r="F94">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1">
+        <v>300</v>
+      </c>
+      <c r="D95">
+        <v>186</v>
+      </c>
+      <c r="E95">
+        <v>219</v>
+      </c>
+      <c r="F95">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1">
+        <v>300</v>
+      </c>
+      <c r="D96">
+        <v>170</v>
+      </c>
+      <c r="E96">
+        <v>225</v>
+      </c>
+      <c r="F96">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1">
+        <v>300</v>
+      </c>
+      <c r="D97">
+        <v>258</v>
+      </c>
+      <c r="E97">
+        <v>268</v>
+      </c>
+      <c r="F97">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1">
+        <v>300</v>
+      </c>
+      <c r="D98">
+        <v>232</v>
+      </c>
+      <c r="E98">
+        <v>240</v>
+      </c>
+      <c r="F98">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>300</v>
+      </c>
+      <c r="D99">
+        <v>176</v>
+      </c>
+      <c r="E99">
+        <v>228</v>
+      </c>
+      <c r="F99">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>300</v>
+      </c>
+      <c r="D100">
+        <v>227</v>
+      </c>
+      <c r="E100">
+        <v>225</v>
+      </c>
+      <c r="F100">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1">
+        <v>300</v>
+      </c>
+      <c r="D101">
+        <v>297</v>
+      </c>
+      <c r="E101">
+        <v>291</v>
+      </c>
+      <c r="F101">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1">
+        <v>300</v>
+      </c>
+      <c r="D102">
+        <v>290</v>
+      </c>
+      <c r="E102">
+        <v>280</v>
+      </c>
+      <c r="F102">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1">
+        <v>300</v>
+      </c>
+      <c r="D103">
+        <v>271</v>
+      </c>
+      <c r="E103">
+        <v>157</v>
+      </c>
+      <c r="F103">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1">
+        <v>300</v>
+      </c>
+      <c r="D104">
+        <v>194</v>
+      </c>
+      <c r="E104">
+        <v>244</v>
+      </c>
+      <c r="F104">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1">
+        <v>300</v>
+      </c>
+      <c r="D105">
+        <v>170</v>
+      </c>
+      <c r="E105">
+        <v>259</v>
+      </c>
+      <c r="F105">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>300</v>
+      </c>
+      <c r="D106">
+        <v>184</v>
+      </c>
+      <c r="E106">
+        <v>251</v>
+      </c>
+      <c r="F106">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1">
+        <v>300</v>
+      </c>
+      <c r="D107">
+        <v>259</v>
+      </c>
+      <c r="E107">
+        <v>211</v>
+      </c>
+      <c r="F107">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1">
+        <v>300</v>
+      </c>
+      <c r="D108">
+        <v>187</v>
+      </c>
+      <c r="E108">
+        <v>258</v>
+      </c>
+      <c r="F108">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1">
+        <v>300</v>
+      </c>
+      <c r="D109">
+        <v>234</v>
+      </c>
+      <c r="E109">
+        <v>224</v>
+      </c>
+      <c r="F109">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="1">
+        <v>300</v>
+      </c>
+      <c r="D110">
+        <v>157</v>
+      </c>
+      <c r="E110">
+        <v>224</v>
+      </c>
+      <c r="F110">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1">
+        <v>300</v>
+      </c>
+      <c r="D111">
+        <v>291</v>
+      </c>
+      <c r="E111">
+        <v>290</v>
+      </c>
+      <c r="F111">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1">
+        <v>300</v>
+      </c>
+      <c r="D112">
+        <v>258</v>
+      </c>
+      <c r="E112">
+        <v>186</v>
+      </c>
+      <c r="F112">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="1">
-        <v>115</v>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1">
+        <v>300</v>
+      </c>
+      <c r="D113">
+        <v>272</v>
+      </c>
+      <c r="E113">
+        <v>270</v>
+      </c>
+      <c r="F113">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>300</v>
+      </c>
+      <c r="D114">
+        <v>268</v>
+      </c>
+      <c r="E114">
+        <v>297</v>
+      </c>
+      <c r="F114">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1">
+        <v>300</v>
+      </c>
+      <c r="D115">
+        <v>179</v>
+      </c>
+      <c r="E115">
+        <v>236</v>
+      </c>
+      <c r="F115">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>300</v>
+      </c>
+      <c r="D116">
+        <v>206</v>
+      </c>
+      <c r="E116">
+        <v>277</v>
+      </c>
+      <c r="F116">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>300</v>
+      </c>
+      <c r="D117">
+        <v>244</v>
+      </c>
+      <c r="E117">
+        <v>196</v>
+      </c>
+      <c r="F117">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>300</v>
+      </c>
+      <c r="D118">
+        <v>201</v>
+      </c>
+      <c r="E118">
+        <v>170</v>
+      </c>
+      <c r="F118">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>300</v>
+      </c>
+      <c r="D119">
+        <v>287</v>
+      </c>
+      <c r="E119">
+        <v>192</v>
+      </c>
+      <c r="F119">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1">
+        <v>300</v>
+      </c>
+      <c r="D120">
+        <v>232</v>
+      </c>
+      <c r="E120">
+        <v>154</v>
+      </c>
+      <c r="F120">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1">
+        <v>300</v>
+      </c>
+      <c r="D121">
+        <v>197</v>
+      </c>
+      <c r="E121">
+        <v>162</v>
+      </c>
+      <c r="F121">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1">
+        <v>300</v>
+      </c>
+      <c r="D122">
+        <v>263</v>
+      </c>
+      <c r="E122">
+        <v>159</v>
+      </c>
+      <c r="F122">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1">
+        <v>300</v>
+      </c>
+      <c r="D123">
+        <v>296</v>
+      </c>
+      <c r="E123">
+        <v>223</v>
+      </c>
+      <c r="F123">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1">
+        <v>300</v>
+      </c>
+      <c r="D124">
+        <v>260</v>
+      </c>
+      <c r="E124">
+        <v>278</v>
+      </c>
+      <c r="F124">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="1">
+        <v>300</v>
+      </c>
+      <c r="D125">
+        <v>222</v>
+      </c>
+      <c r="E125">
+        <v>178</v>
+      </c>
+      <c r="F125">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1">
+        <v>300</v>
+      </c>
+      <c r="D126">
+        <v>176</v>
+      </c>
+      <c r="E126">
+        <v>215</v>
+      </c>
+      <c r="F126">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1">
+        <v>300</v>
+      </c>
+      <c r="D127">
+        <v>260</v>
+      </c>
+      <c r="E127">
+        <v>238</v>
+      </c>
+      <c r="F127">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1">
+        <v>300</v>
+      </c>
+      <c r="D128">
+        <v>164</v>
+      </c>
+      <c r="E128">
+        <v>235</v>
+      </c>
+      <c r="F128">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>300</v>
+      </c>
+      <c r="D129">
+        <v>300</v>
+      </c>
+      <c r="E129">
+        <v>154</v>
+      </c>
+      <c r="F129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1">
+        <v>300</v>
+      </c>
+      <c r="D130">
+        <v>252</v>
+      </c>
+      <c r="E130">
+        <v>277</v>
+      </c>
+      <c r="F130">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>300</v>
+      </c>
+      <c r="D131">
+        <v>174</v>
+      </c>
+      <c r="E131">
+        <v>206</v>
+      </c>
+      <c r="F131">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1">
+        <v>300</v>
+      </c>
+      <c r="D132">
+        <v>174</v>
+      </c>
+      <c r="E132">
+        <v>164</v>
+      </c>
+      <c r="F132">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>300</v>
+      </c>
+      <c r="D133">
+        <v>284</v>
+      </c>
+      <c r="E133">
+        <v>274</v>
+      </c>
+      <c r="F133">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>300</v>
+      </c>
+      <c r="D134">
+        <v>221</v>
+      </c>
+      <c r="E134">
+        <v>247</v>
+      </c>
+      <c r="F134">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>300</v>
+      </c>
+      <c r="D135">
+        <v>227</v>
+      </c>
+      <c r="E135">
+        <v>156</v>
+      </c>
+      <c r="F135">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1">
+        <v>300</v>
+      </c>
+      <c r="D136">
+        <v>222</v>
+      </c>
+      <c r="E136">
+        <v>261</v>
+      </c>
+      <c r="F136">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1">
+        <v>300</v>
+      </c>
+      <c r="D137">
+        <v>212</v>
+      </c>
+      <c r="E137">
+        <v>182</v>
+      </c>
+      <c r="F137">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1">
+        <v>300</v>
+      </c>
+      <c r="D138">
+        <v>177</v>
+      </c>
+      <c r="E138">
+        <v>272</v>
+      </c>
+      <c r="F138">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="1">
+        <v>300</v>
+      </c>
+      <c r="D139">
+        <v>160</v>
+      </c>
+      <c r="E139">
+        <v>152</v>
+      </c>
+      <c r="F139">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1">
+        <v>300</v>
+      </c>
+      <c r="D140">
+        <v>210</v>
+      </c>
+      <c r="E140">
+        <v>216</v>
+      </c>
+      <c r="F140">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="1">
+        <v>300</v>
+      </c>
+      <c r="D141">
+        <v>264</v>
+      </c>
+      <c r="E141">
+        <v>151</v>
+      </c>
+      <c r="F141">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>300</v>
+      </c>
+      <c r="D142">
+        <v>285</v>
+      </c>
+      <c r="E142">
+        <v>266</v>
+      </c>
+      <c r="F142">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="1">
+        <v>300</v>
+      </c>
+      <c r="D143">
+        <v>235</v>
+      </c>
+      <c r="E143">
+        <v>208</v>
+      </c>
+      <c r="F143">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1">
+        <v>300</v>
+      </c>
+      <c r="D144">
+        <v>271</v>
+      </c>
+      <c r="E144">
+        <v>299</v>
+      </c>
+      <c r="F144">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="1">
+        <v>300</v>
+      </c>
+      <c r="D145">
+        <v>239</v>
+      </c>
+      <c r="E145">
+        <v>191</v>
+      </c>
+      <c r="F145">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="1">
+        <v>300</v>
+      </c>
+      <c r="D146">
+        <v>271</v>
+      </c>
+      <c r="E146">
+        <v>217</v>
+      </c>
+      <c r="F146">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1">
+        <v>300</v>
+      </c>
+      <c r="D147">
+        <v>254</v>
+      </c>
+      <c r="E147">
+        <v>171</v>
+      </c>
+      <c r="F147">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1">
+        <v>300</v>
+      </c>
+      <c r="D148">
+        <v>274</v>
+      </c>
+      <c r="E148">
+        <v>175</v>
+      </c>
+      <c r="F148">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="1">
+        <v>300</v>
+      </c>
+      <c r="D149">
+        <v>188</v>
+      </c>
+      <c r="E149">
+        <v>201</v>
+      </c>
+      <c r="F149">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1">
+        <v>300</v>
+      </c>
+      <c r="D150">
+        <v>278</v>
+      </c>
+      <c r="E150">
+        <v>181</v>
+      </c>
+      <c r="F150">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>300</v>
+      </c>
+      <c r="D151">
+        <v>269</v>
+      </c>
+      <c r="E151">
+        <v>267</v>
+      </c>
+      <c r="F151">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="1">
+        <v>300</v>
+      </c>
+      <c r="D152">
+        <v>250</v>
+      </c>
+      <c r="E152">
+        <v>205</v>
+      </c>
+      <c r="F152">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1">
+        <v>300</v>
+      </c>
+      <c r="D153">
+        <v>172</v>
+      </c>
+      <c r="E153">
+        <v>249</v>
+      </c>
+      <c r="F153">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1">
+        <v>300</v>
+      </c>
+      <c r="D154">
+        <v>160</v>
+      </c>
+      <c r="E154">
+        <v>201</v>
+      </c>
+      <c r="F154">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1">
+        <v>300</v>
+      </c>
+      <c r="D155">
+        <v>300</v>
+      </c>
+      <c r="E155">
+        <v>258</v>
+      </c>
+      <c r="F155">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>300</v>
+      </c>
+      <c r="D156">
+        <v>257</v>
+      </c>
+      <c r="E156">
+        <v>167</v>
+      </c>
+      <c r="F156">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1">
+        <v>300</v>
+      </c>
+      <c r="D157">
+        <v>285</v>
+      </c>
+      <c r="E157">
+        <v>156</v>
+      </c>
+      <c r="F157">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1">
+        <v>300</v>
+      </c>
+      <c r="D158">
+        <v>243</v>
+      </c>
+      <c r="E158">
+        <v>268</v>
+      </c>
+      <c r="F158">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>300</v>
+      </c>
+      <c r="D159">
+        <v>223</v>
+      </c>
+      <c r="E159">
+        <v>169</v>
+      </c>
+      <c r="F159">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="1">
+        <v>300</v>
+      </c>
+      <c r="D160">
+        <v>216</v>
+      </c>
+      <c r="E160">
+        <v>244</v>
+      </c>
+      <c r="F160">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1">
+        <v>300</v>
+      </c>
+      <c r="D161">
+        <v>237</v>
+      </c>
+      <c r="E161">
+        <v>208</v>
+      </c>
+      <c r="F161">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="1">
+        <v>300</v>
+      </c>
+      <c r="D162">
+        <v>181</v>
+      </c>
+      <c r="E162">
+        <v>217</v>
+      </c>
+      <c r="F162">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1">
+        <v>300</v>
+      </c>
+      <c r="D163">
+        <v>155</v>
+      </c>
+      <c r="E163">
+        <v>176</v>
+      </c>
+      <c r="F163">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1">
+        <v>300</v>
+      </c>
+      <c r="D164">
+        <v>260</v>
+      </c>
+      <c r="E164">
+        <v>212</v>
+      </c>
+      <c r="F164">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1">
+        <v>300</v>
+      </c>
+      <c r="D165">
+        <v>175</v>
+      </c>
+      <c r="E165">
+        <v>261</v>
+      </c>
+      <c r="F165">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="1">
+        <v>300</v>
+      </c>
+      <c r="D166">
+        <v>250</v>
+      </c>
+      <c r="E166">
+        <v>169</v>
+      </c>
+      <c r="F166">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>300</v>
+      </c>
+      <c r="D167">
+        <v>205</v>
+      </c>
+      <c r="E167">
+        <v>295</v>
+      </c>
+      <c r="F167">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1">
+        <v>300</v>
+      </c>
+      <c r="D168">
+        <v>258</v>
+      </c>
+      <c r="E168">
+        <v>257</v>
+      </c>
+      <c r="F168">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="1">
+        <v>300</v>
+      </c>
+      <c r="D169">
+        <v>183</v>
+      </c>
+      <c r="E169">
+        <v>298</v>
+      </c>
+      <c r="F169">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="1">
+        <v>300</v>
+      </c>
+      <c r="D170">
+        <v>229</v>
+      </c>
+      <c r="E170">
+        <v>270</v>
+      </c>
+      <c r="F170">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="1">
+        <v>300</v>
+      </c>
+      <c r="D171">
+        <v>200</v>
+      </c>
+      <c r="E171">
+        <v>187</v>
+      </c>
+      <c r="F171">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1">
+        <v>300</v>
+      </c>
+      <c r="D172">
+        <v>300</v>
+      </c>
+      <c r="E172">
+        <v>283</v>
+      </c>
+      <c r="F172">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>300</v>
+      </c>
+      <c r="D173">
+        <v>169</v>
+      </c>
+      <c r="E173">
+        <v>265</v>
+      </c>
+      <c r="F173">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>300</v>
+      </c>
+      <c r="D174">
+        <v>185</v>
+      </c>
+      <c r="E174">
+        <v>284</v>
+      </c>
+      <c r="F174">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>300</v>
+      </c>
+      <c r="D175">
+        <v>218</v>
+      </c>
+      <c r="E175">
+        <v>188</v>
+      </c>
+      <c r="F175">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>300</v>
+      </c>
+      <c r="D176">
+        <v>199</v>
+      </c>
+      <c r="E176">
+        <v>175</v>
+      </c>
+      <c r="F176">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>300</v>
+      </c>
+      <c r="D177">
+        <v>194</v>
+      </c>
+      <c r="E177">
+        <v>173</v>
+      </c>
+      <c r="F177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>300</v>
+      </c>
+      <c r="D178">
+        <v>174</v>
+      </c>
+      <c r="E178">
+        <v>206</v>
+      </c>
+      <c r="F178">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>300</v>
+      </c>
+      <c r="D179">
+        <v>197</v>
+      </c>
+      <c r="E179">
+        <v>271</v>
+      </c>
+      <c r="F179">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1">
+        <v>300</v>
+      </c>
+      <c r="D180">
+        <v>245</v>
+      </c>
+      <c r="E180">
+        <v>297</v>
+      </c>
+      <c r="F180">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>300</v>
+      </c>
+      <c r="D181">
+        <v>186</v>
+      </c>
+      <c r="E181">
+        <v>198</v>
+      </c>
+      <c r="F181">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="1">
+        <v>300</v>
+      </c>
+      <c r="D182">
+        <v>251</v>
+      </c>
+      <c r="E182">
+        <v>198</v>
+      </c>
+      <c r="F182">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>300</v>
+      </c>
+      <c r="D183">
+        <v>153</v>
+      </c>
+      <c r="E183">
+        <v>211</v>
+      </c>
+      <c r="F183">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1">
+        <v>300</v>
+      </c>
+      <c r="D184">
+        <v>176</v>
+      </c>
+      <c r="E184">
+        <v>178</v>
+      </c>
+      <c r="F184">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>300</v>
+      </c>
+      <c r="D185">
+        <v>188</v>
+      </c>
+      <c r="E185">
+        <v>288</v>
+      </c>
+      <c r="F185">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1">
+        <v>300</v>
+      </c>
+      <c r="D186">
+        <v>247</v>
+      </c>
+      <c r="E186">
+        <v>236</v>
+      </c>
+      <c r="F186">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>300</v>
+      </c>
+      <c r="D187">
+        <v>239</v>
+      </c>
+      <c r="E187">
+        <v>252</v>
+      </c>
+      <c r="F187">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1">
+        <v>300</v>
+      </c>
+      <c r="D188">
+        <v>285</v>
+      </c>
+      <c r="E188">
+        <v>167</v>
+      </c>
+      <c r="F188">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>300</v>
+      </c>
+      <c r="D189">
+        <v>291</v>
+      </c>
+      <c r="E189">
+        <v>236</v>
+      </c>
+      <c r="F189">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1">
+        <v>300</v>
+      </c>
+      <c r="D190">
+        <v>171</v>
+      </c>
+      <c r="E190">
+        <v>156</v>
+      </c>
+      <c r="F190">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>300</v>
+      </c>
+      <c r="D191">
+        <v>222</v>
+      </c>
+      <c r="E191">
+        <v>260</v>
+      </c>
+      <c r="F191">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>300</v>
+      </c>
+      <c r="D192">
+        <v>187</v>
+      </c>
+      <c r="E192">
+        <v>192</v>
+      </c>
+      <c r="F192">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>300</v>
+      </c>
+      <c r="D193">
+        <v>236</v>
+      </c>
+      <c r="E193">
+        <v>191</v>
+      </c>
+      <c r="F193">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1">
+        <v>300</v>
+      </c>
+      <c r="D194">
+        <v>275</v>
+      </c>
+      <c r="E194">
+        <v>188</v>
+      </c>
+      <c r="F194">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="1">
+        <v>300</v>
+      </c>
+      <c r="D195">
+        <v>157</v>
+      </c>
+      <c r="E195">
+        <v>273</v>
+      </c>
+      <c r="F195">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1">
+        <v>300</v>
+      </c>
+      <c r="D196">
+        <v>263</v>
+      </c>
+      <c r="E196">
+        <v>228</v>
+      </c>
+      <c r="F196">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>300</v>
+      </c>
+      <c r="D197">
+        <v>258</v>
+      </c>
+      <c r="E197">
+        <v>268</v>
+      </c>
+      <c r="F197">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1">
+        <v>300</v>
+      </c>
+      <c r="D198">
+        <v>193</v>
+      </c>
+      <c r="E198">
+        <v>191</v>
+      </c>
+      <c r="F198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>300</v>
+      </c>
+      <c r="D199">
+        <v>210</v>
+      </c>
+      <c r="E199">
+        <v>209</v>
+      </c>
+      <c r="F199">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="1">
+        <v>300</v>
+      </c>
+      <c r="D200">
+        <v>208</v>
+      </c>
+      <c r="E200">
+        <v>211</v>
+      </c>
+      <c r="F200">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="1">
+        <v>300</v>
+      </c>
+      <c r="D201">
+        <v>242</v>
+      </c>
+      <c r="E201">
+        <v>195</v>
+      </c>
+      <c r="F201">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1">
+        <v>300</v>
+      </c>
+      <c r="D202">
+        <v>231</v>
+      </c>
+      <c r="E202">
+        <v>197</v>
+      </c>
+      <c r="F202">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="1">
+        <v>300</v>
+      </c>
+      <c r="D203">
+        <v>170</v>
+      </c>
+      <c r="E203">
+        <v>188</v>
+      </c>
+      <c r="F203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="1">
+        <v>300</v>
+      </c>
+      <c r="D204">
+        <v>184</v>
+      </c>
+      <c r="E204">
+        <v>252</v>
+      </c>
+      <c r="F204">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1">
+        <v>300</v>
+      </c>
+      <c r="D205">
+        <v>172</v>
+      </c>
+      <c r="E205">
+        <v>260</v>
+      </c>
+      <c r="F205">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="1">
+        <v>300</v>
+      </c>
+      <c r="D206">
+        <v>241</v>
+      </c>
+      <c r="E206">
+        <v>239</v>
+      </c>
+      <c r="F206">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>300</v>
+      </c>
+      <c r="D207">
+        <v>207</v>
+      </c>
+      <c r="E207">
+        <v>282</v>
+      </c>
+      <c r="F207">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1">
+        <v>300</v>
+      </c>
+      <c r="D208">
+        <v>246</v>
+      </c>
+      <c r="E208">
+        <v>170</v>
+      </c>
+      <c r="F208">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>300</v>
+      </c>
+      <c r="D209">
+        <v>238</v>
+      </c>
+      <c r="E209">
+        <v>251</v>
+      </c>
+      <c r="F209">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="1">
+        <v>300</v>
+      </c>
+      <c r="D210">
+        <v>271</v>
+      </c>
+      <c r="E210">
+        <v>227</v>
+      </c>
+      <c r="F210">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="1">
+        <v>300</v>
+      </c>
+      <c r="D211">
+        <v>225</v>
+      </c>
+      <c r="E211">
+        <v>194</v>
+      </c>
+      <c r="F211">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="1">
+        <v>300</v>
+      </c>
+      <c r="D212">
+        <v>172</v>
+      </c>
+      <c r="E212">
+        <v>232</v>
+      </c>
+      <c r="F212">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>300</v>
+      </c>
+      <c r="D213">
+        <v>260</v>
+      </c>
+      <c r="E213">
+        <v>216</v>
+      </c>
+      <c r="F213">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="1">
+        <v>300</v>
+      </c>
+      <c r="D214">
+        <v>185</v>
+      </c>
+      <c r="E214">
+        <v>202</v>
+      </c>
+      <c r="F214">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>300</v>
+      </c>
+      <c r="D215">
+        <v>255</v>
+      </c>
+      <c r="E215">
+        <v>291</v>
+      </c>
+      <c r="F215">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1">
+        <v>300</v>
+      </c>
+      <c r="D216">
+        <v>282</v>
+      </c>
+      <c r="E216">
+        <v>180</v>
+      </c>
+      <c r="F216">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="1">
+        <v>300</v>
+      </c>
+      <c r="D217">
+        <v>286</v>
+      </c>
+      <c r="E217">
+        <v>244</v>
+      </c>
+      <c r="F217">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="1">
+        <v>300</v>
+      </c>
+      <c r="D218">
+        <v>163</v>
+      </c>
+      <c r="E218">
+        <v>183</v>
+      </c>
+      <c r="F218">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="1">
+        <v>300</v>
+      </c>
+      <c r="D219">
+        <v>194</v>
+      </c>
+      <c r="E219">
+        <v>257</v>
+      </c>
+      <c r="F219">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="1">
+        <v>300</v>
+      </c>
+      <c r="D220">
+        <v>166</v>
+      </c>
+      <c r="E220">
+        <v>199</v>
+      </c>
+      <c r="F220">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="1">
+        <v>300</v>
+      </c>
+      <c r="D221">
+        <v>199</v>
+      </c>
+      <c r="E221">
+        <v>237</v>
+      </c>
+      <c r="F221">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="1">
+        <v>300</v>
+      </c>
+      <c r="D222">
+        <v>167</v>
+      </c>
+      <c r="E222">
+        <v>290</v>
+      </c>
+      <c r="F222">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="1">
+        <v>300</v>
+      </c>
+      <c r="D223">
+        <v>266</v>
+      </c>
+      <c r="E223">
+        <v>207</v>
+      </c>
+      <c r="F223">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="1">
+        <v>300</v>
+      </c>
+      <c r="D224">
+        <v>238</v>
+      </c>
+      <c r="E224">
+        <v>150</v>
+      </c>
+      <c r="F224">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="1">
+        <v>300</v>
+      </c>
+      <c r="D225">
+        <v>213</v>
+      </c>
+      <c r="E225">
+        <v>189</v>
+      </c>
+      <c r="F225">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="1">
+        <v>300</v>
+      </c>
+      <c r="D226">
+        <v>236</v>
+      </c>
+      <c r="E226">
+        <v>182</v>
+      </c>
+      <c r="F226">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="1">
+        <v>300</v>
+      </c>
+      <c r="D227">
+        <v>241</v>
+      </c>
+      <c r="E227">
+        <v>294</v>
+      </c>
+      <c r="F227">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="1">
+        <v>300</v>
+      </c>
+      <c r="D228">
+        <v>257</v>
+      </c>
+      <c r="E228">
+        <v>215</v>
+      </c>
+      <c r="F228">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="1">
+        <v>300</v>
+      </c>
+      <c r="D229">
+        <v>244</v>
+      </c>
+      <c r="E229">
+        <v>237</v>
+      </c>
+      <c r="F229">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="1">
+        <v>300</v>
+      </c>
+      <c r="D230">
+        <v>265</v>
+      </c>
+      <c r="E230">
+        <v>208</v>
+      </c>
+      <c r="F230">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="1">
+        <v>300</v>
+      </c>
+      <c r="D231">
+        <v>221</v>
+      </c>
+      <c r="E231">
+        <v>276</v>
+      </c>
+      <c r="F231">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="1">
+        <v>300</v>
+      </c>
+      <c r="D232">
+        <v>296</v>
+      </c>
+      <c r="E232">
+        <v>251</v>
+      </c>
+      <c r="F232">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="1">
+        <v>300</v>
+      </c>
+      <c r="D233">
+        <v>270</v>
+      </c>
+      <c r="E233">
+        <v>235</v>
+      </c>
+      <c r="F233">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="1">
+        <v>300</v>
+      </c>
+      <c r="D234">
+        <v>172</v>
+      </c>
+      <c r="E234">
+        <v>284</v>
+      </c>
+      <c r="F234">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="1">
+        <v>300</v>
+      </c>
+      <c r="D235">
+        <v>155</v>
+      </c>
+      <c r="E235">
+        <v>162</v>
+      </c>
+      <c r="F235">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="1">
+        <v>300</v>
+      </c>
+      <c r="D236">
+        <v>255</v>
+      </c>
+      <c r="E236">
+        <v>204</v>
+      </c>
+      <c r="F236">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="1">
+        <v>300</v>
+      </c>
+      <c r="D237">
+        <v>173</v>
+      </c>
+      <c r="E237">
+        <v>298</v>
+      </c>
+      <c r="F237">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="1">
+        <v>300</v>
+      </c>
+      <c r="D238">
+        <v>218</v>
+      </c>
+      <c r="E238">
+        <v>204</v>
+      </c>
+      <c r="F238">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="1">
+        <v>300</v>
+      </c>
+      <c r="D239">
+        <v>155</v>
+      </c>
+      <c r="E239">
+        <v>183</v>
+      </c>
+      <c r="F239">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1">
+        <v>300</v>
+      </c>
+      <c r="D240">
+        <v>242</v>
+      </c>
+      <c r="E240">
+        <v>217</v>
+      </c>
+      <c r="F240">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="1">
+        <v>300</v>
+      </c>
+      <c r="D241">
+        <v>214</v>
+      </c>
+      <c r="E241">
+        <v>163</v>
+      </c>
+      <c r="F241">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="1">
+        <v>300</v>
+      </c>
+      <c r="D242">
+        <v>277</v>
+      </c>
+      <c r="E242">
+        <v>156</v>
+      </c>
+      <c r="F242">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="1">
+        <v>300</v>
+      </c>
+      <c r="D243">
+        <v>250</v>
+      </c>
+      <c r="E243">
+        <v>216</v>
+      </c>
+      <c r="F243">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="1">
+        <v>300</v>
+      </c>
+      <c r="D244">
+        <v>161</v>
+      </c>
+      <c r="E244">
+        <v>228</v>
+      </c>
+      <c r="F244">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="1">
+        <v>300</v>
+      </c>
+      <c r="D245">
+        <v>250</v>
+      </c>
+      <c r="E245">
+        <v>258</v>
+      </c>
+      <c r="F245">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="1">
+        <v>300</v>
+      </c>
+      <c r="D246">
+        <v>211</v>
+      </c>
+      <c r="E246">
+        <v>288</v>
+      </c>
+      <c r="F246">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1">
+        <v>300</v>
+      </c>
+      <c r="D247">
+        <v>201</v>
+      </c>
+      <c r="E247">
+        <v>250</v>
+      </c>
+      <c r="F247">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="1">
+        <v>300</v>
+      </c>
+      <c r="D248">
+        <v>266</v>
+      </c>
+      <c r="E248">
+        <v>160</v>
+      </c>
+      <c r="F248">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" s="1">
+        <v>300</v>
+      </c>
+      <c r="D249">
+        <v>290</v>
+      </c>
+      <c r="E249">
+        <v>166</v>
+      </c>
+      <c r="F249">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="1">
+        <v>300</v>
+      </c>
+      <c r="D250">
+        <v>265</v>
+      </c>
+      <c r="E250">
+        <v>231</v>
+      </c>
+      <c r="F250">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="1">
+        <v>300</v>
+      </c>
+      <c r="D251">
+        <v>239</v>
+      </c>
+      <c r="E251">
+        <v>296</v>
+      </c>
+      <c r="F251">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="1">
+        <v>300</v>
+      </c>
+      <c r="D252">
+        <v>163</v>
+      </c>
+      <c r="E252">
+        <v>214</v>
+      </c>
+      <c r="F252">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="1">
+        <v>300</v>
+      </c>
+      <c r="D253">
+        <v>252</v>
+      </c>
+      <c r="E253">
+        <v>192</v>
+      </c>
+      <c r="F253">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="1">
+        <v>300</v>
+      </c>
+      <c r="D254">
+        <v>215</v>
+      </c>
+      <c r="E254">
+        <v>152</v>
+      </c>
+      <c r="F254">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" s="1">
+        <v>300</v>
+      </c>
+      <c r="D255">
+        <v>183</v>
+      </c>
+      <c r="E255">
+        <v>166</v>
+      </c>
+      <c r="F255">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="1">
+        <v>300</v>
+      </c>
+      <c r="D256">
+        <v>219</v>
+      </c>
+      <c r="E256">
+        <v>214</v>
+      </c>
+      <c r="F256">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="1">
+        <v>300</v>
+      </c>
+      <c r="D257">
+        <v>172</v>
+      </c>
+      <c r="E257">
+        <v>265</v>
+      </c>
+      <c r="F257">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="1">
+        <v>300</v>
+      </c>
+      <c r="D258">
+        <v>249</v>
+      </c>
+      <c r="E258">
+        <v>300</v>
+      </c>
+      <c r="F258">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="1">
+        <v>300</v>
+      </c>
+      <c r="D259">
+        <v>183</v>
+      </c>
+      <c r="E259">
+        <v>285</v>
+      </c>
+      <c r="F259">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="1">
+        <v>300</v>
+      </c>
+      <c r="D260">
+        <v>151</v>
+      </c>
+      <c r="E260">
+        <v>264</v>
+      </c>
+      <c r="F260">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" s="1">
+        <v>300</v>
+      </c>
+      <c r="D261">
+        <v>254</v>
+      </c>
+      <c r="E261">
+        <v>185</v>
+      </c>
+      <c r="F261">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="1">
+        <v>300</v>
+      </c>
+      <c r="D262">
+        <v>222</v>
+      </c>
+      <c r="E262">
+        <v>171</v>
+      </c>
+      <c r="F262">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="1">
+        <v>300</v>
+      </c>
+      <c r="D263">
+        <v>290</v>
+      </c>
+      <c r="E263">
+        <v>244</v>
+      </c>
+      <c r="F263">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C264" s="1">
+        <v>300</v>
+      </c>
+      <c r="D264">
+        <v>268</v>
+      </c>
+      <c r="E264">
+        <v>246</v>
+      </c>
+      <c r="F264">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="1">
+        <v>300</v>
+      </c>
+      <c r="D265">
+        <v>199</v>
+      </c>
+      <c r="E265">
+        <v>234</v>
+      </c>
+      <c r="F265">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C266" s="1">
+        <v>300</v>
+      </c>
+      <c r="D266">
+        <v>297</v>
+      </c>
+      <c r="E266">
+        <v>233</v>
+      </c>
+      <c r="F266">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="1">
+        <v>300</v>
+      </c>
+      <c r="D267">
+        <v>249</v>
+      </c>
+      <c r="E267">
+        <v>224</v>
+      </c>
+      <c r="F267">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C268" s="1">
+        <v>300</v>
+      </c>
+      <c r="D268">
+        <v>282</v>
+      </c>
+      <c r="E268">
+        <v>201</v>
+      </c>
+      <c r="F268">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="1">
+        <v>300</v>
+      </c>
+      <c r="D269">
+        <v>203</v>
+      </c>
+      <c r="E269">
+        <v>273</v>
+      </c>
+      <c r="F269">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="1">
+        <v>300</v>
+      </c>
+      <c r="D270">
+        <v>298</v>
+      </c>
+      <c r="E270">
+        <v>189</v>
+      </c>
+      <c r="F270">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="1">
+        <v>300</v>
+      </c>
+      <c r="D271">
+        <v>272</v>
+      </c>
+      <c r="E271">
+        <v>236</v>
+      </c>
+      <c r="F271">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="1">
+        <v>300</v>
+      </c>
+      <c r="D272">
+        <v>218</v>
+      </c>
+      <c r="E272">
+        <v>253</v>
+      </c>
+      <c r="F272">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="1">
+        <v>300</v>
+      </c>
+      <c r="D273">
+        <v>167</v>
+      </c>
+      <c r="E273">
+        <v>189</v>
+      </c>
+      <c r="F273">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274" s="1">
+        <v>300</v>
+      </c>
+      <c r="D274">
+        <v>182</v>
+      </c>
+      <c r="E274">
+        <v>209</v>
+      </c>
+      <c r="F274">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="1">
+        <v>300</v>
+      </c>
+      <c r="D275">
+        <v>200</v>
+      </c>
+      <c r="E275">
+        <v>222</v>
+      </c>
+      <c r="F275">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="1">
+        <v>300</v>
+      </c>
+      <c r="D276">
+        <v>175</v>
+      </c>
+      <c r="E276">
+        <v>222</v>
+      </c>
+      <c r="F276">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="1">
+        <v>300</v>
+      </c>
+      <c r="D277">
+        <v>280</v>
+      </c>
+      <c r="E277">
+        <v>209</v>
+      </c>
+      <c r="F277">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="1">
+        <v>300</v>
+      </c>
+      <c r="D278">
+        <v>285</v>
+      </c>
+      <c r="E278">
+        <v>285</v>
+      </c>
+      <c r="F278">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" s="1">
+        <v>300</v>
+      </c>
+      <c r="D279">
+        <v>218</v>
+      </c>
+      <c r="E279">
+        <v>153</v>
+      </c>
+      <c r="F279">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="1">
+        <v>300</v>
+      </c>
+      <c r="D280">
+        <v>274</v>
+      </c>
+      <c r="E280">
+        <v>264</v>
+      </c>
+      <c r="F280">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="1">
+        <v>300</v>
+      </c>
+      <c r="D281">
+        <v>152</v>
+      </c>
+      <c r="E281">
+        <v>211</v>
+      </c>
+      <c r="F281">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="1">
+        <v>300</v>
+      </c>
+      <c r="D282">
+        <v>251</v>
+      </c>
+      <c r="E282">
+        <v>260</v>
+      </c>
+      <c r="F282">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="1">
+        <v>300</v>
+      </c>
+      <c r="D283">
+        <v>160</v>
+      </c>
+      <c r="E283">
+        <v>203</v>
+      </c>
+      <c r="F283">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="1">
+        <v>300</v>
+      </c>
+      <c r="D284">
+        <v>173</v>
+      </c>
+      <c r="E284">
+        <v>258</v>
+      </c>
+      <c r="F284">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="1">
+        <v>300</v>
+      </c>
+      <c r="D285">
+        <v>293</v>
+      </c>
+      <c r="E285">
+        <v>221</v>
+      </c>
+      <c r="F285">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C286" s="1">
+        <v>300</v>
+      </c>
+      <c r="D286">
+        <v>191</v>
+      </c>
+      <c r="E286">
+        <v>219</v>
+      </c>
+      <c r="F286">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="1">
+        <v>300</v>
+      </c>
+      <c r="D287">
+        <v>281</v>
+      </c>
+      <c r="E287">
+        <v>158</v>
+      </c>
+      <c r="F287">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="1">
+        <v>300</v>
+      </c>
+      <c r="D288">
+        <v>281</v>
+      </c>
+      <c r="E288">
+        <v>273</v>
+      </c>
+      <c r="F288">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="1">
+        <v>300</v>
+      </c>
+      <c r="D289">
+        <v>247</v>
+      </c>
+      <c r="E289">
+        <v>227</v>
+      </c>
+      <c r="F289">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="1">
+        <v>300</v>
+      </c>
+      <c r="D290">
+        <v>211</v>
+      </c>
+      <c r="E290">
+        <v>225</v>
+      </c>
+      <c r="F290">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C291" s="1">
+        <v>300</v>
+      </c>
+      <c r="D291">
+        <v>216</v>
+      </c>
+      <c r="E291">
+        <v>200</v>
+      </c>
+      <c r="F291">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" s="1">
+        <v>300</v>
+      </c>
+      <c r="D292">
+        <v>244</v>
+      </c>
+      <c r="E292">
+        <v>182</v>
+      </c>
+      <c r="F292">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="1">
+        <v>300</v>
+      </c>
+      <c r="D293">
+        <v>152</v>
+      </c>
+      <c r="E293">
+        <v>252</v>
+      </c>
+      <c r="F293">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="1">
+        <v>300</v>
+      </c>
+      <c r="D294">
+        <v>165</v>
+      </c>
+      <c r="E294">
+        <v>244</v>
+      </c>
+      <c r="F294">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="1">
+        <v>300</v>
+      </c>
+      <c r="D295">
+        <v>198</v>
+      </c>
+      <c r="E295">
+        <v>253</v>
+      </c>
+      <c r="F295">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="1">
+        <v>300</v>
+      </c>
+      <c r="D296">
+        <v>266</v>
+      </c>
+      <c r="E296">
+        <v>234</v>
+      </c>
+      <c r="F296">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="1">
+        <v>300</v>
+      </c>
+      <c r="D297">
+        <v>272</v>
+      </c>
+      <c r="E297">
+        <v>269</v>
+      </c>
+      <c r="F297">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="1">
+        <v>300</v>
+      </c>
+      <c r="D298">
+        <v>180</v>
+      </c>
+      <c r="E298">
+        <v>229</v>
+      </c>
+      <c r="F298">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="1">
+        <v>300</v>
+      </c>
+      <c r="D299">
+        <v>195</v>
+      </c>
+      <c r="E299">
+        <v>297</v>
+      </c>
+      <c r="F299">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="1">
+        <v>300</v>
+      </c>
+      <c r="D300">
+        <v>154</v>
+      </c>
+      <c r="E300">
+        <v>171</v>
+      </c>
+      <c r="F300">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="1">
+        <v>300</v>
+      </c>
+      <c r="D301">
+        <v>223</v>
+      </c>
+      <c r="E301">
+        <v>234</v>
+      </c>
+      <c r="F301">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="1">
+        <v>300</v>
+      </c>
+      <c r="D302">
+        <v>259</v>
+      </c>
+      <c r="E302">
+        <v>158</v>
+      </c>
+      <c r="F302">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" s="1">
+        <v>300</v>
+      </c>
+      <c r="D303">
+        <v>273</v>
+      </c>
+      <c r="E303">
+        <v>258</v>
+      </c>
+      <c r="F303">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="1">
+        <v>300</v>
+      </c>
+      <c r="D304">
+        <v>221</v>
+      </c>
+      <c r="E304">
+        <v>248</v>
+      </c>
+      <c r="F304">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="1">
+        <v>300</v>
+      </c>
+      <c r="D305">
+        <v>290</v>
+      </c>
+      <c r="E305">
+        <v>178</v>
+      </c>
+      <c r="F305">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="1">
+        <v>300</v>
+      </c>
+      <c r="D306">
+        <v>254</v>
+      </c>
+      <c r="E306">
+        <v>231</v>
+      </c>
+      <c r="F306">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="1">
+        <v>300</v>
+      </c>
+      <c r="D307">
+        <v>197</v>
+      </c>
+      <c r="E307">
+        <v>260</v>
+      </c>
+      <c r="F307">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="1">
+        <v>300</v>
+      </c>
+      <c r="D308">
+        <v>187</v>
+      </c>
+      <c r="E308">
+        <v>246</v>
+      </c>
+      <c r="F308">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="1">
+        <v>300</v>
+      </c>
+      <c r="D309">
+        <v>205</v>
+      </c>
+      <c r="E309">
+        <v>231</v>
+      </c>
+      <c r="F309">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="1">
+        <v>300</v>
+      </c>
+      <c r="D310">
+        <v>195</v>
+      </c>
+      <c r="E310">
+        <v>298</v>
+      </c>
+      <c r="F310">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="1">
+        <v>300</v>
+      </c>
+      <c r="D311">
+        <v>238</v>
+      </c>
+      <c r="E311">
+        <v>214</v>
+      </c>
+      <c r="F311">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" s="1">
+        <v>300</v>
+      </c>
+      <c r="D312">
+        <v>293</v>
+      </c>
+      <c r="E312">
+        <v>250</v>
+      </c>
+      <c r="F312">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>